--- a/Documentação/Product Backlog/Product Backlog v2.xlsx
+++ b/Documentação/Product Backlog/Product Backlog v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valemobibr-my.sharepoint.com/personal/vinicius_cano_valemobi_com_br/Documents/Documentos/ads3/grupoPi3Semestre/Documentação/Product Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{EAC5775E-48CB-4FD6-A906-ECD3A0F09387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{176EF95B-DA6D-4585-B1B5-F41A856DBB03}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{EAC5775E-48CB-4FD6-A906-ECD3A0F09387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B63733-8F57-4FE5-A71C-D376109B0331}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+    <row r="11" spans="2:8" s="25" customFormat="1" ht="45.75" thickBot="1">
       <c r="B11" s="36" t="s">
         <v>20</v>
       </c>
